--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{269BB122-4753-41DF-85AA-9CA008C945A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{820F4CE8-3309-4889-A9BA-4598D2A8CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{B6A15934-E734-4BC7-B2D5-8AB44E014301}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{B6A15934-E734-4BC7-B2D5-8AB44E014301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,18 +50,12 @@
     <t>Demo1234</t>
   </si>
   <si>
-    <t>Ryan</t>
-  </si>
-  <si>
     <t>Ashton</t>
   </si>
   <si>
     <t>Clark</t>
   </si>
   <si>
-    <t>ac@gmail.com</t>
-  </si>
-  <si>
     <t>`9087678901</t>
   </si>
   <si>
@@ -74,31 +68,37 @@
     <t>Richardson</t>
   </si>
   <si>
-    <t>tr123@yahoo.com</t>
-  </si>
-  <si>
     <t>`865674321</t>
   </si>
   <si>
     <t>HellRaiser</t>
   </si>
   <si>
-    <t>Drewington</t>
-  </si>
-  <si>
-    <t>jackdrewington99@gmail.com</t>
-  </si>
-  <si>
     <t>`9543213456</t>
   </si>
   <si>
-    <t>Whittington</t>
-  </si>
-  <si>
-    <t>ryan959whittington@gmail.com</t>
-  </si>
-  <si>
     <t>`9100009090</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>jl@yahoo.com</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>bmoon@gmail.com</t>
+  </si>
+  <si>
+    <t>ashton.clarkey@gmail.com</t>
+  </si>
+  <si>
+    <t>trentrich@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -539,42 +539,42 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
